--- a/Storelist_combine.xlsx
+++ b/Storelist_combine.xlsx
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BA RIA   VUNG TAU</t>
+          <t>BA RIA - VUNG TAU</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -16795,7 +16795,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16812,7 +16812,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -17084,7 +17084,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -17305,7 +17305,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -17407,7 +17407,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -17509,7 +17509,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>BA  RA&gt;&gt;&lt;A   VA(C)NG TA U</t>
+          <t>BA  RA&gt;&gt;&lt;A - VA(C)NG TA U</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
@@ -25720,7 +25720,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
@@ -25754,7 +25754,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
@@ -25822,7 +25822,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
@@ -25873,7 +25873,7 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
@@ -25890,7 +25890,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
@@ -25924,7 +25924,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -25958,7 +25958,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
@@ -25992,7 +25992,7 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
@@ -26026,7 +26026,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
@@ -26060,7 +26060,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26094,7 +26094,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -26128,7 +26128,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
@@ -26162,7 +26162,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -26196,7 +26196,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
@@ -26230,7 +26230,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
@@ -26247,7 +26247,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
@@ -26298,7 +26298,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26332,7 +26332,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
@@ -26349,7 +26349,7 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
@@ -26383,7 +26383,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
@@ -26400,7 +26400,7 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
@@ -26485,7 +26485,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
@@ -26536,7 +26536,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
@@ -26553,7 +26553,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -26570,7 +26570,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
@@ -26604,7 +26604,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>AAO K LAO K</t>
+          <t>AAO-K LAO-K</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
@@ -26672,7 +26672,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
@@ -26706,7 +26706,7 @@
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
@@ -26723,7 +26723,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
@@ -26757,7 +26757,7 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
@@ -26774,7 +26774,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
@@ -26791,7 +26791,7 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
@@ -26893,7 +26893,7 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
@@ -26944,7 +26944,7 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
@@ -26978,7 +26978,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>AAO K NA'NG</t>
+          <t>AAO-K NA'NG</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
